--- a/medicine/Enfance/Violaine_Leroy/Violaine_Leroy.xlsx
+++ b/medicine/Enfance/Violaine_Leroy/Violaine_Leroy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Violaine Leroy, née en 1981, est une illustratrice et scénariste française.
 </t>
@@ -511,14 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Violaine Leroy est issue de l'atelier illustration de l'école supérieure des arts décoratifs de Strasbourg[1]. 
-Carrière professionnelle
-Depuis 2005, ses dessins s'adressent aux enfants et aux adultes, à travers un travail mené à la fois dans l'édition (Éditions Milan, Nathan, Gallimard Jeunesse...) et dans la presse (Milan, Le Monde, La revue XXI...). Elle est cofondatrice du collectif artistique Les Rhubarbus[2] aux côtés de l'illustratrice Anne Laval[1].
-Ses planches sont sélectionnées à deux reprises lors du concours Jeunes Talents du Festival international de la bande dessinée d'Angoulême, en 2004 et 2007[3].
-Son premier roman graphique, La rue des autres est édité aux éditions de la Pastèque en 2008. En 2015, elle s'intéresse, au détour des salles d'un musée, à ces personnages « dérangés » dans un roman graphique au même titre, Dérangés, entre rêves et réalité[4].
-En 2015, à la Foire internationale du livre de jeunesse de Bologne, l'ouvrage qu'elle a illustré A table ! Petite philosophie du repas sur un texte de Martine Gasparov, est « Mention Spéciale » du Prix Book and Seeds[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Violaine Leroy est issue de l'atelier illustration de l'école supérieure des arts décoratifs de Strasbourg. 
 </t>
         </is>
       </c>
@@ -544,16 +553,95 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2005, ses dessins s'adressent aux enfants et aux adultes, à travers un travail mené à la fois dans l'édition (Éditions Milan, Nathan, Gallimard Jeunesse...) et dans la presse (Milan, Le Monde, La revue XXI...). Elle est cofondatrice du collectif artistique Les Rhubarbus aux côtés de l'illustratrice Anne Laval.
+Ses planches sont sélectionnées à deux reprises lors du concours Jeunes Talents du Festival international de la bande dessinée d'Angoulême, en 2004 et 2007.
+Son premier roman graphique, La rue des autres est édité aux éditions de la Pastèque en 2008. En 2015, elle s'intéresse, au détour des salles d'un musée, à ces personnages « dérangés » dans un roman graphique au même titre, Dérangés, entre rêves et réalité.
+En 2015, à la Foire internationale du livre de jeunesse de Bologne, l'ouvrage qu'elle a illustré A table ! Petite philosophie du repas sur un texte de Martine Gasparov, est « Mention Spéciale » du Prix Book and Seeds.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Violaine_Leroy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Violaine_Leroy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans graphiques et autres publications
-2008 : La rue des autres, Éditions de la Pastèque
-2015 : Dérangés, Éditions de la Pastèque
-Illustrations
-2009 : Les morts vivants ne mangent pas de carottes de Pascal Prévost, Éditions Milan
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans graphiques et autres publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2008 : La rue des autres, Éditions de la Pastèque
+2015 : Dérangés, Éditions de la Pastèque</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Violaine_Leroy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Violaine_Leroy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2009 : Les morts vivants ne mangent pas de carottes de Pascal Prévost, Éditions Milan
 2010 : Parle-moi d'amour : L'amour, les copains et moi de Nadine Mouchet et Valérie Combes, Amaterra Nouvel Angle
 2010 : Parle-moi d'amour : Les garçons et les filles, de Nadine Mouchet et Valérie Combes, Amaterra Nouvel Angle
 2011 : La baguette de nuit noire d'Anne Didier, Bayard Jeunesse
